--- a/lib/wrappers/cli_options.xlsx
+++ b/lib/wrappers/cli_options.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Ruby\gems\bblib\lib\program\wrappers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Ruby\gems\cli_chef\lib\wrappers\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11835" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="7Zip" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="406">
   <si>
     <t>name</t>
   </si>
@@ -371,19 +371,898 @@
   </si>
   <si>
     <t>extract_full_paths</t>
+  </si>
+  <si>
+    <t>verbose</t>
+  </si>
+  <si>
+    <t>preset</t>
+  </si>
+  <si>
+    <t>preset-list</t>
+  </si>
+  <si>
+    <t>no_dvd_nav</t>
+  </si>
+  <si>
+    <t>no_open_cl</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>min-duration</t>
+  </si>
+  <si>
+    <t>scan</t>
+  </si>
+  <si>
+    <t>main_feature</t>
+  </si>
+  <si>
+    <t>chapters</t>
+  </si>
+  <si>
+    <t>angle</t>
+  </si>
+  <si>
+    <t>previews</t>
+  </si>
+  <si>
+    <t>start_at_preview</t>
+  </si>
+  <si>
+    <t>start_at</t>
+  </si>
+  <si>
+    <t>stop_at</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>markers</t>
+  </si>
+  <si>
+    <t>large_file</t>
+  </si>
+  <si>
+    <t>optimize</t>
+  </si>
+  <si>
+    <t>ipod_atom</t>
+  </si>
+  <si>
+    <t>use_open_cl</t>
+  </si>
+  <si>
+    <t>use_hwd</t>
+  </si>
+  <si>
+    <t>encoder</t>
+  </si>
+  <si>
+    <t>encoder_preset</t>
+  </si>
+  <si>
+    <t>encoder_preset_list</t>
+  </si>
+  <si>
+    <t>encoder_tune</t>
+  </si>
+  <si>
+    <t>encoder_tune_list</t>
+  </si>
+  <si>
+    <t>encopts</t>
+  </si>
+  <si>
+    <t>encoder_profile</t>
+  </si>
+  <si>
+    <t>encoder_profile_list</t>
+  </si>
+  <si>
+    <t>encoder_level</t>
+  </si>
+  <si>
+    <t>encoder_level_list</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>video_bitrate</t>
+  </si>
+  <si>
+    <t>two_pass</t>
+  </si>
+  <si>
+    <t>turbo</t>
+  </si>
+  <si>
+    <t>video_framerate</t>
+  </si>
+  <si>
+    <t>variable_framerate</t>
+  </si>
+  <si>
+    <t>constant_framerate</t>
+  </si>
+  <si>
+    <t>peak_limited_framerate</t>
+  </si>
+  <si>
+    <t>audio_tracks</t>
+  </si>
+  <si>
+    <t>audio_encoder</t>
+  </si>
+  <si>
+    <t>audio_copy_mask</t>
+  </si>
+  <si>
+    <t>audio_fallback</t>
+  </si>
+  <si>
+    <t>audio_bitrate</t>
+  </si>
+  <si>
+    <t>audio_quality</t>
+  </si>
+  <si>
+    <t>audio_compression</t>
+  </si>
+  <si>
+    <t>mixdown</t>
+  </si>
+  <si>
+    <t>normalize_mix</t>
+  </si>
+  <si>
+    <t>audio_samplerate</t>
+  </si>
+  <si>
+    <t>dynamic_range_compression</t>
+  </si>
+  <si>
+    <t>gain</t>
+  </si>
+  <si>
+    <t>audio_dither</t>
+  </si>
+  <si>
+    <t>audio_track_name</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>crop</t>
+  </si>
+  <si>
+    <t>loose_crop</t>
+  </si>
+  <si>
+    <t>max_height</t>
+  </si>
+  <si>
+    <t>max_width</t>
+  </si>
+  <si>
+    <t>strict_anamorphic</t>
+  </si>
+  <si>
+    <t>loose_anamorphic</t>
+  </si>
+  <si>
+    <t>custom_anamorphic</t>
+  </si>
+  <si>
+    <t>display_width</t>
+  </si>
+  <si>
+    <t>keep_display_aspect</t>
+  </si>
+  <si>
+    <t>pixel_aspect</t>
+  </si>
+  <si>
+    <t>itu_par</t>
+  </si>
+  <si>
+    <t>modulus</t>
+  </si>
+  <si>
+    <t>color_matrix</t>
+  </si>
+  <si>
+    <t>deinterlace</t>
+  </si>
+  <si>
+    <t>decomb</t>
+  </si>
+  <si>
+    <t>detelecine</t>
+  </si>
+  <si>
+    <t>denoise</t>
+  </si>
+  <si>
+    <t>nlmeans</t>
+  </si>
+  <si>
+    <t>nimeans_tune</t>
+  </si>
+  <si>
+    <t>deblock</t>
+  </si>
+  <si>
+    <t>rotate</t>
+  </si>
+  <si>
+    <t>grayscale</t>
+  </si>
+  <si>
+    <t>subtitle_track</t>
+  </si>
+  <si>
+    <t>subtitle_forced</t>
+  </si>
+  <si>
+    <t>subtitle_burned</t>
+  </si>
+  <si>
+    <t>subtitle_default</t>
+  </si>
+  <si>
+    <t>native_language</t>
+  </si>
+  <si>
+    <t>native_dub</t>
+  </si>
+  <si>
+    <t>srt_file</t>
+  </si>
+  <si>
+    <t>srt_codeset</t>
+  </si>
+  <si>
+    <t>srt_offset</t>
+  </si>
+  <si>
+    <t>srt_lang</t>
+  </si>
+  <si>
+    <t>srt_default</t>
+  </si>
+  <si>
+    <t>srt_burn</t>
+  </si>
+  <si>
+    <t>Print help</t>
+  </si>
+  <si>
+    <t>Check for updates and exit</t>
+  </si>
+  <si>
+    <t>Be verbose (optional argument: logging level)</t>
+  </si>
+  <si>
+    <t>Use a built-in preset. Capitalization matters, and if the preset name has spaces, surround it with double quotation marks</t>
+  </si>
+  <si>
+    <t>See a list of available built-in presets</t>
+  </si>
+  <si>
+    <t>Do not use dvdnav for reading DVDs</t>
+  </si>
+  <si>
+    <t>Disable use of OpenCL</t>
+  </si>
+  <si>
+    <t>Set input device</t>
+  </si>
+  <si>
+    <t>Select a title to encode (0 to scan all titles only</t>
+  </si>
+  <si>
+    <t>Set the minimum title duration (in seconds). Shorter  titles will not be scanned.</t>
+  </si>
+  <si>
+    <t>Scan selected title only.</t>
+  </si>
+  <si>
+    <t>Detect and select the main feature title.</t>
+  </si>
+  <si>
+    <t>Select chapters (e.g. "1-3" for chapters 1 to 3, or "3" for chapter 3 only</t>
+  </si>
+  <si>
+    <t>Select the video angle (DVD or Blu-ray only)</t>
+  </si>
+  <si>
+    <t>Select how many preview images are generated, and whether or not they're stored to disk (0 or 1).</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>Start encoding at a given preview.</t>
+  </si>
+  <si>
+    <t>Start encoding at a given frame, duration (in seconds), or pts (on a 90kHz clock)</t>
+  </si>
+  <si>
+    <t>Stop encoding at a given frame, duration (in seconds), or pts (on a 90kHz clock)</t>
+  </si>
+  <si>
+    <t>Set output file name</t>
+  </si>
+  <si>
+    <t>Set output container format (av_mp4/av_mkv)</t>
+  </si>
+  <si>
+    <t>Add chapter markers</t>
+  </si>
+  <si>
+    <t>Create 64-bit mp4 files that can hold more than 4 GB of data. Note: breaks pre-iOS iPod compatibility.</t>
+  </si>
+  <si>
+    <t>Optimize mp4 files for HTTP streaming ("fast start")</t>
+  </si>
+  <si>
+    <t>Mark mp4 files so 5.5G iPods will accept them</t>
+  </si>
+  <si>
+    <t>Use OpenCL where applicable</t>
+  </si>
+  <si>
+    <t>Use DXVA2 hardware decoding</t>
+  </si>
+  <si>
+    <t>Set video library encoder. Options: x264/x265/mpeg4/mpeg2/VP8/theora</t>
+  </si>
+  <si>
+    <t>mpeg4</t>
+  </si>
+  <si>
+    <t>Adjust video encoding settings for a particular speed/efficiency tradeoff (encoder-specific)</t>
+  </si>
+  <si>
+    <t>List supported --encoder-preset values for the specified video encoder</t>
+  </si>
+  <si>
+    <t>Adjust video encoding settings for a particular  type of souce or situation (encoder-specific)</t>
+  </si>
+  <si>
+    <t>List supported --encoder-tune values for the  specified video encoder</t>
+  </si>
+  <si>
+    <t>Specify advanced encoding options in the same  style as mencoder (all encoders except theora):  option1=value1:option2=value2</t>
+  </si>
+  <si>
+    <t>Ensures compliance with the requested codec   profile (encoder-specific)</t>
+  </si>
+  <si>
+    <t>List supported --encoder-profile values for the   specified video encoder</t>
+  </si>
+  <si>
+    <t>Ensures compliance with the requested codec  level (encoder-specific)</t>
+  </si>
+  <si>
+    <t>List supported --encoder-level values for the  specified video encoder</t>
+  </si>
+  <si>
+    <t>Set video quality</t>
+  </si>
+  <si>
+    <t>Set video bitrate</t>
+  </si>
+  <si>
+    <t>Use two-pass mode</t>
+  </si>
+  <si>
+    <t>When using 2-pass use "turbo" options on the  1st pass to improve speed (only works with x264)</t>
+  </si>
+  <si>
+    <t>Set video framerate (5/10/12/15/23.976/24/25/29.97/30/50/59.94/60).  Be aware that not specifying a framerate lets  HandBrake preserve a source's time stamps,  potentially creating variable framerate video</t>
+  </si>
+  <si>
+    <t>VFR preserves the source timing.</t>
+  </si>
+  <si>
+    <t>CFR makes the output constant rate at the rate given by the -r flag (or the source's average rate if no -r is given)</t>
+  </si>
+  <si>
+    <t>PFR doesn't allow the rate to go over the rate specified  with the -r flag but won't change the source  timing if it's below that rate.</t>
+  </si>
+  <si>
+    <t>Select audio track(s), separated by commas</t>
+  </si>
+  <si>
+    <t>Audio encoder(s): av_aac, fdk_aac, fdk_haac, copy:aac, ac3, copy:ac3, copy:dts, copy:dtshd, mp3, copy:mp3, vorbis, flac16, flac24, copy. copy:* will passthrough the corresponding audio unmodified to the muxer if it is a supported passthrough audio type. Separated by commas for more than one audio track.</t>
+  </si>
+  <si>
+    <t>av_aac</t>
+  </si>
+  <si>
+    <t>Set audio codecs that are permitted when the "copy" audio encoder option is specified (aac/ac3/dts/dtshd/mp3, default: all).</t>
+  </si>
+  <si>
+    <t>Set audio codec to use when it is not possible to copy an audio track without re-encoding.</t>
+  </si>
+  <si>
+    <t>Set audio bitrate(s) (default: depends on the selected codec, mixdown and samplerate). Separated by commas for more than one audio track.</t>
+  </si>
+  <si>
+    <t>Set audio quality metric (default: depends on the selected codec). Separated by commas for more than one audio track.</t>
+  </si>
+  <si>
+    <t>Set audio compression metric (default: depends on the selected codec). Separated by commas for more than one audio track.</t>
+  </si>
+  <si>
+    <t>Format(s) for audio downmixing/upmixing:, mono, left_only, right_only, stereo, dpl1, dpl2, 5point1, 6point1, 7point1, 5_2_lfe .Separated by commas for more than one audio track.</t>
+  </si>
+  <si>
+    <t>dp12</t>
+  </si>
+  <si>
+    <t>Normalize audio mix levels to prevent clipping.  Separated by commas for more than one audio track.  0 = Disable Normalization (default)  1 = Enable Normalization</t>
+  </si>
+  <si>
+    <t>Set audio samplerate(s) (8/11.025/12/16/22.05/24/32/44.1/48 kHz). Separated by commas for more than one audio track.</t>
+  </si>
+  <si>
+    <t>Apply extra dynamic range compression to the audio, making soft sounds louder. Range is 1.0 to 4.0  (too loud), with 1.5 - 2.5 being a useful range. Separated by commas for more than one audio track.</t>
+  </si>
+  <si>
+    <t>Amplify or attenuate audio before encoding.  Does  NOT work with audio passthru (copy). Values are in  dB.  Negative values attenuate, positive values  amplify. A 1 dB difference is barely audible.</t>
+  </si>
+  <si>
+    <t>Apply dithering to the audio before encoding. Separated by commas for more than one audio track.  Only supported by some encoders (fdk_aac/fdk_haac/flac16).  Options: auto (default),  none,  rectangular,   triangular,   triangular_hp,  triangular_ns</t>
+  </si>
+  <si>
+    <t>Audio track name(s).  Separated by commas for more than one audio track.</t>
+  </si>
+  <si>
+    <t>Set picture width</t>
+  </si>
+  <si>
+    <t>Set picture height</t>
+  </si>
+  <si>
+    <t>Set cropping values (default: autocrop)</t>
+  </si>
+  <si>
+    <t>Always crop to a multiple of the modulus. Specifies the maximum number of extra pixels which may be cropped (default: 15)</t>
+  </si>
+  <si>
+    <t>Set maximum height</t>
+  </si>
+  <si>
+    <t>Set maximum width</t>
+  </si>
+  <si>
+    <t>Store pixel aspect ratio in video stream</t>
+  </si>
+  <si>
+    <t>Store pixel aspect ratio with specified width</t>
+  </si>
+  <si>
+    <t>Store pixel aspect ratio in video stream and directly control all parameters.</t>
+  </si>
+  <si>
+    <t>Set the width to scale the actual pixels to at playback, for custom anamorphic.</t>
+  </si>
+  <si>
+    <t>Preserve the source's display aspect ratio when using custom anamorphic</t>
+  </si>
+  <si>
+    <t>Set a custom pixel aspect for custom anamorphic (--display-width and --pixel-aspect are mutually exclusive and the former will override the latter)</t>
+  </si>
+  <si>
+    <t>Use wider, ITU pixel aspect values for loose and custom anamorphic, useful with underscanned sources</t>
+  </si>
+  <si>
+    <t>Set the number you want the scaled pixel dimensions to divide cleanly by. Does not affect strict anamorphic mode, which is always mod 2 (default: 16)</t>
+  </si>
+  <si>
+    <t>Set the color space signaled by the output. Values: 709, pal, ntsc, 601 (same as ntsc) (default: detected from source)</t>
+  </si>
+  <si>
+    <t>Unconditionally deinterlaces all frames  &lt;fast/slow/slower/bob&gt; or omitted (default settings)  or  &lt;YM:FD&gt;  (default 0:-1)</t>
+  </si>
+  <si>
+    <t>Selectively deinterlaces when it detects combing &lt;fast/bob&gt; or omitted (default settings) or  &lt;MO:ME:MT:ST:BT:BX:BY:MG:VA:LA:DI:ER:NO:MD:PP:FD&gt;  (default: 7:2:6:9:80:16:16:10:20:20:4:2:50:24:1:-1)</t>
+  </si>
+  <si>
+    <t>Detelecine (ivtc) video with pullup filter. Note: this filter drops duplicate frames to restore the pre-telecine framerate, unless you specify a constant framerate (--rate 29.97) &lt;L:R:T:B:SB:MP:FD&gt; (default 1:1:4:4:0:0:-1)</t>
+  </si>
+  <si>
+    <t>Denoise video with hqdn3d filter &lt;ultralight/light/medium/strong&gt; or omitted (default settings) or &lt;SL:SCb:SCr:TL:TCb:TCr&gt; (default: 4:3:3:6:4.5:4.5)</t>
+  </si>
+  <si>
+    <t>Denoise video with nlmeans filter &lt;ultralight/light/medium/strong&gt; or omitted or &lt;SY:OTY:PSY:RY:FY:PY:Sb:OTb:PSb:Rb:Fb:Pb:Sr:OTr:PSr:Rr:Fr:Pr&gt; (default 8:1:7:3:2:0)</t>
+  </si>
+  <si>
+    <t>Tune nlmeans filter to content type. Note: only works in conjunction with presets ultralight/light/medium/strong. &lt;none/film/grain/highmotion/animation&gt; or omitted (default none)</t>
+  </si>
+  <si>
+    <t>Deblock video with pp7 filter (default 5:2)</t>
+  </si>
+  <si>
+    <t>Rotate image or flip its axes. Modes: (can be combined) 1 vertical flip, 2 horizontal flip, 4 rotate clockwise 90 degrees, Default: 3 (vertical and horizontal flip)</t>
+  </si>
+  <si>
+    <t>Grayscale encoding</t>
+  </si>
+  <si>
+    <t>Select subtitle track(s), separated by commas. More than one output track can be used for one input.  Example: "1,2,3" for multiple tracks. A special track name "scan" adds an extra 1st pass.  This extra pass scans subtitles matching the language of the first audio or the language  selected by --native-language. The one that's only used 10 percent of the time or less is selected. This should locate subtitles for short foreign language segments. Best used in conjunction with --subtitle-forced.</t>
+  </si>
+  <si>
+    <t>Only display subtitles from the selected stream if the subtitle has the forced flag set. The values in "string" are indexes into the subtitle list specified with '--subtitle'. Separated by commas for more than one subtitle track. Example: "1,2,3" for multiple tracks. If "string" is omitted, the first track is forced.</t>
+  </si>
+  <si>
+    <t>"Burn" the selected subtitle into the video track. If "number" is omitted, the first track is burned. "number" is an index into the subtitle list specified with '--subtitle'.</t>
+  </si>
+  <si>
+    <t>Flag the selected subtitle as the default subtitle  to be displayed upon playback.  Setting no default means no subtitle will be automatically displayed. If "number" is omitted, the first track is default. "number" is an index into the subtitle list specified with '--subtitle'.</t>
+  </si>
+  <si>
+    <t>Specifiy your language preference. When the first audio track does not match your native language then select the first subtitle that does. When used in conjunction with --native-dub the audio track is changed in preference to subtitles. Provide the language's iso639-2 code (fre, eng, spa, dut, et cetera)</t>
+  </si>
+  <si>
+    <t>Used in conjunction with --native-language requests that if no audio tracks are selected the default selected audio track will be the first one that matches the --native-language. If there are no matching audio tracks then the first matching subtitle track is used instead.</t>
+  </si>
+  <si>
+    <t>SubRip SRT filename(s), separated by commas.</t>
+  </si>
+  <si>
+    <t>Character codeset(s) that the SRT file(s) are encoded in, separated by commas. Use 'iconv -l' for a list of valid codesets. If not specified, 'latin1' is assumed</t>
+  </si>
+  <si>
+    <t>Offset (in milliseconds) to apply to the SRT file(s), separated by commas. If not specified, zero is assumed. Offsets may be negative.</t>
+  </si>
+  <si>
+    <t>Language as an iso639-2 code fra, eng, spa et cetera) for the SRT file(s), separated by commas. If not specified, then 'und' is used.</t>
+  </si>
+  <si>
+    <t>Flag the selected srt as the default subtitle to be displayed upon playback.  Setting no default means no subtitle will be automatically displayed. If "number" is omitted, the first srt is default. "number" is an 1 based index into the srt-file list</t>
+  </si>
+  <si>
+    <t>"Burn" the selected srt subtitle into the video track. If "number" is omitted, the first srt is burned. "number" is an 1 based index into the srt-file list</t>
+  </si>
+  <si>
+    <t>--help</t>
+  </si>
+  <si>
+    <t>--update</t>
+  </si>
+  <si>
+    <t>--preset</t>
+  </si>
+  <si>
+    <t>--preset-list</t>
+  </si>
+  <si>
+    <t>--verbose</t>
+  </si>
+  <si>
+    <t>--no-dvdnav</t>
+  </si>
+  <si>
+    <t>--no-opencl</t>
+  </si>
+  <si>
+    <t>--input</t>
+  </si>
+  <si>
+    <t>--min-duration</t>
+  </si>
+  <si>
+    <t>--scan</t>
+  </si>
+  <si>
+    <t>--chapters</t>
+  </si>
+  <si>
+    <t>--angle</t>
+  </si>
+  <si>
+    <t>--previews</t>
+  </si>
+  <si>
+    <t>--title</t>
+  </si>
+  <si>
+    <t>--main-feature</t>
+  </si>
+  <si>
+    <t>--start-at-preview</t>
+  </si>
+  <si>
+    <t>--start-at</t>
+  </si>
+  <si>
+    <t>--stop-at</t>
+  </si>
+  <si>
+    <t>--output</t>
+  </si>
+  <si>
+    <t>--markers</t>
+  </si>
+  <si>
+    <t>--optimize</t>
+  </si>
+  <si>
+    <t>--format</t>
+  </si>
+  <si>
+    <t>--large-file</t>
+  </si>
+  <si>
+    <t>--ipod-atom</t>
+  </si>
+  <si>
+    <t>--use-opencl</t>
+  </si>
+  <si>
+    <t>--use-hwd</t>
+  </si>
+  <si>
+    <t>--encoder</t>
+  </si>
+  <si>
+    <t>--encopts</t>
+  </si>
+  <si>
+    <t>--quality</t>
+  </si>
+  <si>
+    <t>--turbo</t>
+  </si>
+  <si>
+    <t>--encoder-preset</t>
+  </si>
+  <si>
+    <t>--encoder-preset-list</t>
+  </si>
+  <si>
+    <t>--encoder-tune</t>
+  </si>
+  <si>
+    <t>--encoder-tune-list</t>
+  </si>
+  <si>
+    <t>--encoder-profile</t>
+  </si>
+  <si>
+    <t>--encoder-profile-list</t>
+  </si>
+  <si>
+    <t>--encoder-level</t>
+  </si>
+  <si>
+    <t>--encoder-level-list</t>
+  </si>
+  <si>
+    <t>--vb</t>
+  </si>
+  <si>
+    <t>--two-pass</t>
+  </si>
+  <si>
+    <t>--rate</t>
+  </si>
+  <si>
+    <t>--vfr</t>
+  </si>
+  <si>
+    <t>--cfr</t>
+  </si>
+  <si>
+    <t>--pfr</t>
+  </si>
+  <si>
+    <t>--audio</t>
+  </si>
+  <si>
+    <t>--aencoder</t>
+  </si>
+  <si>
+    <t>--adither</t>
+  </si>
+  <si>
+    <t>--aname</t>
+  </si>
+  <si>
+    <t>--audio-copy-mast</t>
+  </si>
+  <si>
+    <t>--audio-fallback</t>
+  </si>
+  <si>
+    <t>--ab</t>
+  </si>
+  <si>
+    <t>--aq</t>
+  </si>
+  <si>
+    <t>--ac</t>
+  </si>
+  <si>
+    <t>--mixdown</t>
+  </si>
+  <si>
+    <t>--gain</t>
+  </si>
+  <si>
+    <t>--normalize-mix</t>
+  </si>
+  <si>
+    <t>--arate</t>
+  </si>
+  <si>
+    <t>--drc</t>
+  </si>
+  <si>
+    <t>--width</t>
+  </si>
+  <si>
+    <t>--crop</t>
+  </si>
+  <si>
+    <t>--modulus</t>
+  </si>
+  <si>
+    <t>--height</t>
+  </si>
+  <si>
+    <t>--loose-crop</t>
+  </si>
+  <si>
+    <t>--maxHeight</t>
+  </si>
+  <si>
+    <t>--maxWidth</t>
+  </si>
+  <si>
+    <t>--strict-anamorphic</t>
+  </si>
+  <si>
+    <t>--loose-anamorphic</t>
+  </si>
+  <si>
+    <t>--custom-anamorphic</t>
+  </si>
+  <si>
+    <t>--display-width</t>
+  </si>
+  <si>
+    <t>--keep-display-aspect</t>
+  </si>
+  <si>
+    <t>--pixel-aspect</t>
+  </si>
+  <si>
+    <t>--itu-par</t>
+  </si>
+  <si>
+    <t>--color-matrix</t>
+  </si>
+  <si>
+    <t>--deinterlace</t>
+  </si>
+  <si>
+    <t>--detelecine</t>
+  </si>
+  <si>
+    <t>--denoise</t>
+  </si>
+  <si>
+    <t>--nlmeans</t>
+  </si>
+  <si>
+    <t>--deblock</t>
+  </si>
+  <si>
+    <t>--rotate</t>
+  </si>
+  <si>
+    <t>--grayscale</t>
+  </si>
+  <si>
+    <t>--decomb</t>
+  </si>
+  <si>
+    <t>--nlmeans-tune</t>
+  </si>
+  <si>
+    <t>--subtitle</t>
+  </si>
+  <si>
+    <t>--subtitle-forced</t>
+  </si>
+  <si>
+    <t>--subtitle-default</t>
+  </si>
+  <si>
+    <t>--native-language</t>
+  </si>
+  <si>
+    <t>--native-dub</t>
+  </si>
+  <si>
+    <t>--srt-file</t>
+  </si>
+  <si>
+    <t>--srt-codeset</t>
+  </si>
+  <si>
+    <t>--srt-offset</t>
+  </si>
+  <si>
+    <t>--srt-lang</t>
+  </si>
+  <si>
+    <t>--srt-default</t>
+  </si>
+  <si>
+    <t>--srt-burn</t>
+  </si>
+  <si>
+    <t>--subtitle-burned</t>
+  </si>
+  <si>
+    <t>1|2|3</t>
+  </si>
+  <si>
+    <t>Fixnum</t>
+  </si>
+  <si>
+    <t>(1..30)</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>mp4</t>
+  </si>
+  <si>
+    <t>'mp4'|'mkv'</t>
+  </si>
+  <si>
+    <t>'x264'|'x265'|'mpeg4'|'mpeg2'|'VP8'|'theora'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -406,9 +1285,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -691,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,14 +2201,1283 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D23" t="s">
+        <v>403</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D31" t="s">
+        <v>235</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D42">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D51" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D57" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D68">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D78">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/lib/wrappers/cli_options.xlsx
+++ b/lib/wrappers/cli_options.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11835" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11835" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="7Zip" sheetId="1" r:id="rId1"/>
     <sheet name="WinRAR" sheetId="2" r:id="rId2"/>
     <sheet name="HandBrake" sheetId="3" r:id="rId3"/>
+    <sheet name="MediaInfo" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="418">
   <si>
     <t>name</t>
   </si>
@@ -1244,6 +1245,42 @@
   </si>
   <si>
     <t>'x264'|'x265'|'mpeg4'|'mpeg2'|'VP8'|'theora'</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>Full information Display (all internal tags)</t>
+  </si>
+  <si>
+    <t>output_html</t>
+  </si>
+  <si>
+    <t>output_xml</t>
+  </si>
+  <si>
+    <t>Full information Display with HTML tags</t>
+  </si>
+  <si>
+    <t>Full information Display with XML tags</t>
+  </si>
+  <si>
+    <t>--Output=HTML</t>
+  </si>
+  <si>
+    <t>--Output=XML</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>xml</t>
+  </si>
+  <si>
+    <t>The file to get tags out of</t>
+  </si>
+  <si>
+    <t>-f</t>
   </si>
 </sst>
 </file>
@@ -1580,8 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="A1:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2203,7 +2240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
     </sheetView>
@@ -3480,4 +3517,142 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/lib/wrappers/cli_options.xlsx
+++ b/lib/wrappers/cli_options.xlsx
@@ -18,6 +18,7 @@
     <sheet name="MediaInfo" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3524,7 +3525,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/lib/wrappers/cli_options.xlsx
+++ b/lib/wrappers/cli_options.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11835" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11835" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="7Zip" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="MediaInfo" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="438">
   <si>
     <t>name</t>
   </si>
@@ -687,9 +686,6 @@
     <t>Detect and select the main feature title.</t>
   </si>
   <si>
-    <t>Select chapters (e.g. "1-3" for chapters 1 to 3, or "3" for chapter 3 only</t>
-  </si>
-  <si>
     <t>Select the video angle (DVD or Blu-ray only)</t>
   </si>
   <si>
@@ -720,9 +716,6 @@
     <t>Create 64-bit mp4 files that can hold more than 4 GB of data. Note: breaks pre-iOS iPod compatibility.</t>
   </si>
   <si>
-    <t>Optimize mp4 files for HTTP streaming ("fast start")</t>
-  </si>
-  <si>
     <t>Mark mp4 files so 5.5G iPods will accept them</t>
   </si>
   <si>
@@ -774,9 +767,6 @@
     <t>Use two-pass mode</t>
   </si>
   <si>
-    <t>When using 2-pass use "turbo" options on the  1st pass to improve speed (only works with x264)</t>
-  </si>
-  <si>
     <t>Set video framerate (5/10/12/15/23.976/24/25/29.97/30/50/59.94/60).  Be aware that not specifying a framerate lets  HandBrake preserve a source's time stamps,  potentially creating variable framerate video</t>
   </si>
   <si>
@@ -798,9 +788,6 @@
     <t>av_aac</t>
   </si>
   <si>
-    <t>Set audio codecs that are permitted when the "copy" audio encoder option is specified (aac/ac3/dts/dtshd/mp3, default: all).</t>
-  </si>
-  <si>
     <t>Set audio codec to use when it is not possible to copy an audio track without re-encoding.</t>
   </si>
   <si>
@@ -909,18 +896,6 @@
     <t>Grayscale encoding</t>
   </si>
   <si>
-    <t>Select subtitle track(s), separated by commas. More than one output track can be used for one input.  Example: "1,2,3" for multiple tracks. A special track name "scan" adds an extra 1st pass.  This extra pass scans subtitles matching the language of the first audio or the language  selected by --native-language. The one that's only used 10 percent of the time or less is selected. This should locate subtitles for short foreign language segments. Best used in conjunction with --subtitle-forced.</t>
-  </si>
-  <si>
-    <t>Only display subtitles from the selected stream if the subtitle has the forced flag set. The values in "string" are indexes into the subtitle list specified with '--subtitle'. Separated by commas for more than one subtitle track. Example: "1,2,3" for multiple tracks. If "string" is omitted, the first track is forced.</t>
-  </si>
-  <si>
-    <t>"Burn" the selected subtitle into the video track. If "number" is omitted, the first track is burned. "number" is an index into the subtitle list specified with '--subtitle'.</t>
-  </si>
-  <si>
-    <t>Flag the selected subtitle as the default subtitle  to be displayed upon playback.  Setting no default means no subtitle will be automatically displayed. If "number" is omitted, the first track is default. "number" is an index into the subtitle list specified with '--subtitle'.</t>
-  </si>
-  <si>
     <t>Specifiy your language preference. When the first audio track does not match your native language then select the first subtitle that does. When used in conjunction with --native-dub the audio track is changed in preference to subtitles. Provide the language's iso639-2 code (fre, eng, spa, dut, et cetera)</t>
   </si>
   <si>
@@ -939,12 +914,6 @@
     <t>Language as an iso639-2 code fra, eng, spa et cetera) for the SRT file(s), separated by commas. If not specified, then 'und' is used.</t>
   </si>
   <si>
-    <t>Flag the selected srt as the default subtitle to be displayed upon playback.  Setting no default means no subtitle will be automatically displayed. If "number" is omitted, the first srt is default. "number" is an 1 based index into the srt-file list</t>
-  </si>
-  <si>
-    <t>"Burn" the selected srt subtitle into the video track. If "number" is omitted, the first srt is burned. "number" is an 1 based index into the srt-file list</t>
-  </si>
-  <si>
     <t>--help</t>
   </si>
   <si>
@@ -1282,6 +1251,96 @@
   </si>
   <si>
     <t>-f</t>
+  </si>
+  <si>
+    <t>Float|Fixnum</t>
+  </si>
+  <si>
+    <t>'av_aac'|'fdk_aac'|'fdk_haac'|'copy:aac'|'ac3'|'copy:ac3'|'copy:dts'|'copy:dtshd'|'mp3'|'copy:mp3'|'vorbis'|'flac16'|'flac24'|'copy'</t>
+  </si>
+  <si>
+    <t>'all'</t>
+  </si>
+  <si>
+    <t>'all'|'aac'|'ac3'|'dts'|'dtshd'|'mp3'</t>
+  </si>
+  <si>
+    <t>String|Fixnum</t>
+  </si>
+  <si>
+    <t>'mono'|'left_only'|'right_only'|'stereo'|'dp11'|'dp12'|'5point1'|'6point1'|'7point1'|'5_2_lfe'|String</t>
+  </si>
+  <si>
+    <t>0|1</t>
+  </si>
+  <si>
+    <t>String|Float</t>
+  </si>
+  <si>
+    <t>Float|Fixnum|String</t>
+  </si>
+  <si>
+    <t>'auto'</t>
+  </si>
+  <si>
+    <t>'auto'|'none'|'rectangular'|'triangular'|'triangular_hp'|'triangular_ns'|String</t>
+  </si>
+  <si>
+    <t>'autocrop'</t>
+  </si>
+  <si>
+    <t>'1:1'</t>
+  </si>
+  <si>
+    <t>709|'pal'|'ntsc'|'601'</t>
+  </si>
+  <si>
+    <t>'omitted'</t>
+  </si>
+  <si>
+    <t>'omitted'|'fast'|'slow'|'slower'|'bob'</t>
+  </si>
+  <si>
+    <t>'none'|'film'|'grain'|'highmotion'|'animation'|'omitted'</t>
+  </si>
+  <si>
+    <t>1|2|3|4</t>
+  </si>
+  <si>
+    <t>Select chapters (e.g. '1-3' for chapters 1 to 3, or '3' for chapter 3 only</t>
+  </si>
+  <si>
+    <t>Optimize mp4 files for HTTP streaming ('fast start')</t>
+  </si>
+  <si>
+    <t>When using 2-pass use 'turbo' options on the  1st pass to improve speed (only works with x264)</t>
+  </si>
+  <si>
+    <t>Set audio codecs that are permitted when the 'copy' audio encoder option is specified (aac/ac3/dts/dtshd/mp3, default: all).</t>
+  </si>
+  <si>
+    <t>Select subtitle track(s), separated by commas. More than one output track can be used for one input.  Example: '1,2,3' for multiple tracks. A special track name 'scan' adds an extra 1st pass.  This extra pass scans subtitles matching the language of the first audio or the language  selected by --native-language. The one that's only used 10 percent of the time or less is selected. This should locate subtitles for short foreign language segments. Best used in conjunction with --subtitle-forced.</t>
+  </si>
+  <si>
+    <t>Only display subtitles from the selected stream if the subtitle has the forced flag set. The values in 'string' are indexes into the subtitle list specified with '--subtitle'. Separated by commas for more than one subtitle track. Example: '1,2,3' for multiple tracks. If 'string' is omitted, the first track is forced.</t>
+  </si>
+  <si>
+    <t>Burn' the selected subtitle into the video track. If 'number' is omitted, the first track is burned. 'number' is an index into the subtitle list specified with '--subtitle'.</t>
+  </si>
+  <si>
+    <t>Flag the selected subtitle as the default subtitle  to be displayed upon playback.  Setting no default means no subtitle will be automatically displayed. If 'number' is omitted, the first track is default. 'number' is an index into the subtitle list specified with '--subtitle'.</t>
+  </si>
+  <si>
+    <t>Flag the selected srt as the default subtitle to be displayed upon playback.  Setting no default means no subtitle will be automatically displayed. If 'number' is omitted, the first srt is default. 'number' is an 1 based index into the srt-file list</t>
+  </si>
+  <si>
+    <t>Burn' the selected srt subtitle into the video track. If 'number' is omitted, the first srt is burned. 'number' is an 1 based index into the srt-file list</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Fixnum|String</t>
   </si>
 </sst>
 </file>
@@ -1323,10 +1382,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
@@ -1335,6 +1393,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2239,1279 +2306,1816 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="76" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="15" style="4" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="4"/>
+    <col min="8" max="8" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D11" s="4">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D56" s="4">
+        <v>2</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D63" s="4">
+        <v>15</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D73" s="4">
         <v>16</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D4">
+      <c r="E73" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="D82" s="4">
+        <v>3</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D84" s="4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="E84" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="E88" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="G88" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="E89" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="G89" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="G90" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="E91" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D23" t="s">
-        <v>403</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="G91" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E92" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D31" t="s">
-        <v>235</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D42">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D51" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D57" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D68">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D78">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C82" s="1" t="s">
+      <c r="G92" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C86" s="1" t="s">
+      <c r="E93" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C91" s="1" t="s">
+      <c r="E94" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>397</v>
+      <c r="E95" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -3524,7 +4128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -3569,7 +4173,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -3580,13 +4184,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="B3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -3597,13 +4201,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="B4" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -3612,18 +4216,18 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B5" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -3632,7 +4236,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3640,7 +4244,7 @@
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
